--- a/Nevada/Regulatory/NVre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Nevada/Regulatory/NVre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB055938-DFAE-48E4-8A49-FBDCE28D6A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73ECBE7-6E98-4CA1-ABFC-5210E73748B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -554,9 +554,6 @@
   <si>
     <t>Designated;
 Not Designated</t>
-  </si>
-  <si>
-    <t>NRS 534.120</t>
   </si>
   <si>
     <t>Groundwater</t>
@@ -2084,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>8</v>
@@ -2395,7 +2392,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2655,7 +2652,7 @@
         <v>158</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>8</v>
@@ -2883,7 +2880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>158</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>8</v>
@@ -3125,7 +3122,7 @@
         <v>158</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
@@ -3160,7 +3157,7 @@
         <v>158</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>8</v>
@@ -3189,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G9" s="61" t="s">
         <v>8</v>
@@ -3360,7 +3357,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>8</v>
